--- a/main/ig/StructureDefinition-FrCurrentMedicationMedicationStatement.xlsx
+++ b/main/ig/StructureDefinition-FrCurrentMedicationMedicationStatement.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2216" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2205" uniqueCount="456">
   <si>
     <t>Property</t>
   </si>
@@ -285,7 +285,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -332,17 +332,10 @@
     <t>Resource.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>MedicationStatement.implicitRules</t>
   </si>
   <si>
@@ -362,9 +355,6 @@
     <t>Resource.implicitRules</t>
   </si>
   <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>MedicationStatement.language</t>
   </si>
   <si>
@@ -442,6 +432,9 @@
     <t>DomainResource.contained</t>
   </si>
   <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>MedicationStatement.extension</t>
   </si>
   <si>
@@ -462,16 +455,6 @@
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>DomainResource.extension</t>
   </si>
   <si>
@@ -520,9 +503,6 @@
     <t>FiveWs.identifier</t>
   </si>
   <si>
-    <t>CX / EI (occasionally, more often EI maps to a resource id or a URL)</t>
-  </si>
-  <si>
     <t>MedicationStatement.basedOn</t>
   </si>
   <si>
@@ -536,14 +516,7 @@
     <t>A plan, proposal or order that is fulfilled in whole or in part by this event.</t>
   </si>
   <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.</t>
-  </si>
-  <si>
     <t>Allows tracing of authorization for the event and tracking whether proposals/recommendations were acted upon.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
   </si>
   <si>
     <t>Event.basedOn</t>
@@ -637,9 +610,6 @@
     <t>.inboundRelationship[typeCode=SUBJ].source[classCode=CACT, moodCode=EVN].reasonCOde</t>
   </si>
   <si>
-    <t>CE/CNE/CWE</t>
-  </si>
-  <si>
     <t>MedicationStatement.category</t>
   </si>
   <si>
@@ -647,9 +617,6 @@
   </si>
   <si>
     <t>Indicates where the medication is expected to be consumed or administered.</t>
-  </si>
-  <si>
-    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
   </si>
   <si>
     <t>A coded concept identifying where the medication included in the MedicationStatement is expected to be consumed or administered.</t>
@@ -708,12 +675,25 @@
     <t>Element.id</t>
   </si>
   <si>
+    <t>n/a</t>
+  </si>
+  <si>
     <t>MedicationStatement.medication[x].extension</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
     <t>Element.extension</t>
   </si>
   <si>
@@ -735,8 +715,8 @@
     <t>Reference.reference</t>
   </si>
   <si>
-    <t>ele-1
-ref-1</t>
+    <t xml:space="preserve">ref-1
+</t>
   </si>
   <si>
     <t>MedicationStatement.medication[x].type</t>
@@ -1021,9 +1001,6 @@
     <t>Provides extra information about the medication statement that is not conveyed by the other attributes.</t>
   </si>
   <si>
-    <t>For systems that do not have structured annotations, they can simply communicate a single annotation with no author or time.  This element may need to be included in narrative because of the potential for modifying information.  *Annotations SHOULD NOT* be used to communicate "modifying" information that could be computable. (This is a SHOULD because enforcing user behavior is nearly impossible).</t>
-  </si>
-  <si>
     <t>Event.note</t>
   </si>
   <si>
@@ -1085,9 +1062,6 @@
     <t>Indicates the order in which the dosage instructions should be applied or interpreted.</t>
   </si>
   <si>
-    <t>32 bit number; for values larger than this, use decimal</t>
-  </si>
-  <si>
     <t>If the sequence number of multiple Dosages is the same, then it is implied that the instructions are to be treated as concurrent.  If the sequence number is different, then the Dosages are intended to be sequential.</t>
   </si>
   <si>
@@ -1107,9 +1081,6 @@
   </si>
   <si>
     <t>Free text dosage instructions e.g. SIG.</t>
-  </si>
-  <si>
-    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
   </si>
   <si>
     <t>Free text dosage instructions can be used for cases where the instructions are too complex to code.  The content of this attribute does not include the name or description of the medication. When coded instructions are present, the free text instructions may still be present for display to humans taking or administering the medication. It is expected that the text instructions will always be populated.  If the dosage.timing attribute is also populated, then the dosage.text should reflect the same information as the timing.  Additional information about administration or preparation of the medication should be included as text.</t>
@@ -1344,9 +1315,6 @@
   </si>
   <si>
     <t>Dosage.doseAndRate.type</t>
-  </si>
-  <si>
-    <t>CD</t>
   </si>
   <si>
     <t>RXO-21; RXE-23</t>
@@ -1427,6 +1395,10 @@
   </si>
   <si>
     <t>Dosage.maxDosePerPeriod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
@@ -1843,7 +1815,7 @@
     <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="140.73046875" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="62.87890625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="28.1484375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2290,16 +2262,16 @@
         <v>89</v>
       </c>
       <c r="AI4" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ4" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ4" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK4" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>102</v>
+        <v>19</v>
       </c>
       <c r="AM4" t="s" s="2">
         <v>19</v>
@@ -2310,10 +2282,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2336,16 +2308,16 @@
         <v>80</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L5" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="M5" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>105</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>107</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2395,7 +2367,7 @@
         <v>19</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>78</v>
@@ -2404,16 +2376,16 @@
         <v>89</v>
       </c>
       <c r="AI5" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ5" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ5" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK5" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="AM5" t="s" s="2">
         <v>19</v>
@@ -2424,10 +2396,10 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2450,16 +2422,16 @@
         <v>19</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L6" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="M6" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="N6" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>114</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2485,31 +2457,31 @@
         <v>19</v>
       </c>
       <c r="X6" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="Z6" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF6" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="Y6" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="Z6" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>118</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>78</v>
@@ -2518,16 +2490,16 @@
         <v>89</v>
       </c>
       <c r="AI6" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ6" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK6" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="AM6" t="s" s="2">
         <v>19</v>
@@ -2538,14 +2510,14 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2564,16 +2536,16 @@
         <v>19</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="M7" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="N7" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="L7" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2623,7 +2595,7 @@
         <v>19</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>78</v>
@@ -2632,16 +2604,16 @@
         <v>89</v>
       </c>
       <c r="AI7" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ7" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK7" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>19</v>
@@ -2652,14 +2624,14 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2678,16 +2650,16 @@
         <v>19</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="L8" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M8" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="N8" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="L8" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2737,7 +2709,7 @@
         <v>19</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>78</v>
@@ -2755,7 +2727,7 @@
         <v>19</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>19</v>
@@ -2766,14 +2738,14 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2792,16 +2764,16 @@
         <v>19</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="M9" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="N9" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2839,19 +2811,19 @@
         <v>19</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>140</v>
+        <v>19</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>141</v>
+        <v>19</v>
       </c>
       <c r="AD9" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>142</v>
+        <v>19</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -2860,16 +2832,16 @@
         <v>79</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>19</v>
@@ -2880,14 +2852,14 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2906,19 +2878,19 @@
         <v>19</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>19</v>
@@ -2955,19 +2927,19 @@
         <v>19</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>140</v>
+        <v>19</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>141</v>
+        <v>19</v>
       </c>
       <c r="AD10" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>142</v>
+        <v>19</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>78</v>
@@ -2976,16 +2948,16 @@
         <v>79</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>19</v>
@@ -2996,10 +2968,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3022,16 +2994,16 @@
         <v>80</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -3081,7 +3053,7 @@
         <v>19</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>78</v>
@@ -3090,30 +3062,30 @@
         <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ11" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK11" t="s" s="2">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>158</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3136,19 +3108,17 @@
         <v>80</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>19</v>
@@ -3197,7 +3167,7 @@
         <v>19</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
@@ -3206,16 +3176,16 @@
         <v>79</v>
       </c>
       <c r="AI12" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ12" t="s" s="2">
-        <v>165</v>
-      </c>
       <c r="AK12" t="s" s="2">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>19</v>
@@ -3226,10 +3196,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3252,19 +3222,17 @@
         <v>80</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="N13" t="s" s="2">
         <v>163</v>
       </c>
+      <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>19</v>
@@ -3313,7 +3281,7 @@
         <v>19</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>78</v>
@@ -3322,16 +3290,16 @@
         <v>79</v>
       </c>
       <c r="AI13" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ13" t="s" s="2">
+      <c r="AK13" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="AK13" t="s" s="2">
-        <v>173</v>
-      </c>
       <c r="AL13" t="s" s="2">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>19</v>
@@ -3342,10 +3310,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3368,16 +3336,16 @@
         <v>80</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3403,13 +3371,13 @@
         <v>19</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>19</v>
@@ -3427,7 +3395,7 @@
         <v>19</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>89</v>
@@ -3436,19 +3404,19 @@
         <v>89</v>
       </c>
       <c r="AI14" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ14" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK14" t="s" s="2">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>19</v>
@@ -3456,10 +3424,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3482,16 +3450,16 @@
         <v>19</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3517,13 +3485,13 @@
         <v>19</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>19</v>
@@ -3541,7 +3509,7 @@
         <v>19</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>78</v>
@@ -3550,30 +3518,30 @@
         <v>79</v>
       </c>
       <c r="AI15" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ15" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK15" t="s" s="2">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>195</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3596,17 +3564,15 @@
         <v>80</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>199</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>19</v>
@@ -3631,13 +3597,13 @@
         <v>19</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>19</v>
@@ -3655,7 +3621,7 @@
         <v>19</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -3664,30 +3630,30 @@
         <v>89</v>
       </c>
       <c r="AI16" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ16" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK16" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>195</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3710,19 +3676,19 @@
         <v>80</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>19</v>
@@ -3771,7 +3737,7 @@
         <v>19</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>89</v>
@@ -3780,19 +3746,19 @@
         <v>89</v>
       </c>
       <c r="AI17" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ17" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK17" t="s" s="2">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>19</v>
@@ -3800,10 +3766,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3826,13 +3792,13 @@
         <v>19</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3883,7 +3849,7 @@
         <v>19</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
@@ -3901,7 +3867,7 @@
         <v>19</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>109</v>
+        <v>208</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>19</v>
@@ -3912,14 +3878,14 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -3938,16 +3904,16 @@
         <v>19</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L19" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="N19" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3985,19 +3951,19 @@
         <v>19</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>140</v>
+        <v>211</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>141</v>
+        <v>212</v>
       </c>
       <c r="AD19" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>142</v>
+        <v>213</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -4006,16 +3972,16 @@
         <v>79</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>102</v>
+        <v>208</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>19</v>
@@ -4026,10 +3992,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4052,19 +4018,19 @@
         <v>80</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>19</v>
@@ -4113,7 +4079,7 @@
         <v>19</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
@@ -4122,16 +4088,16 @@
         <v>89</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>19</v>
@@ -4142,10 +4108,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4168,16 +4134,16 @@
         <v>80</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4188,7 +4154,7 @@
         <v>19</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="T21" t="s" s="2">
         <v>19</v>
@@ -4203,13 +4169,13 @@
         <v>19</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>19</v>
@@ -4227,7 +4193,7 @@
         <v>19</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
@@ -4236,16 +4202,16 @@
         <v>89</v>
       </c>
       <c r="AI21" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ21" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK21" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>19</v>
@@ -4256,10 +4222,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4282,19 +4248,19 @@
         <v>80</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>19</v>
@@ -4343,7 +4309,7 @@
         <v>19</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -4352,30 +4318,30 @@
         <v>89</v>
       </c>
       <c r="AI22" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ22" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK22" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>158</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4398,16 +4364,16 @@
         <v>80</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4457,7 +4423,7 @@
         <v>19</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -4466,16 +4432,16 @@
         <v>89</v>
       </c>
       <c r="AI23" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ23" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK23" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>19</v>
@@ -4486,10 +4452,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4512,19 +4478,19 @@
         <v>80</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>19</v>
@@ -4573,7 +4539,7 @@
         <v>19</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>89</v>
@@ -4582,30 +4548,30 @@
         <v>89</v>
       </c>
       <c r="AI24" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ24" t="s" s="2">
-        <v>165</v>
-      </c>
       <c r="AK24" t="s" s="2">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4628,13 +4594,13 @@
         <v>19</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4685,7 +4651,7 @@
         <v>19</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
@@ -4703,7 +4669,7 @@
         <v>19</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>109</v>
+        <v>208</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>19</v>
@@ -4714,14 +4680,14 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -4740,16 +4706,16 @@
         <v>19</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="N26" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4787,19 +4753,19 @@
         <v>19</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>140</v>
+        <v>211</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>141</v>
+        <v>212</v>
       </c>
       <c r="AD26" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>142</v>
+        <v>213</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -4808,16 +4774,16 @@
         <v>79</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>102</v>
+        <v>208</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>19</v>
@@ -4828,10 +4794,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4854,16 +4820,16 @@
         <v>80</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4913,7 +4879,7 @@
         <v>19</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -4922,16 +4888,16 @@
         <v>89</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>19</v>
@@ -4942,10 +4908,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4968,16 +4934,16 @@
         <v>80</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4988,7 +4954,7 @@
         <v>19</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>19</v>
@@ -5003,13 +4969,13 @@
         <v>19</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>19</v>
@@ -5027,7 +4993,7 @@
         <v>19</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
@@ -5036,16 +5002,16 @@
         <v>89</v>
       </c>
       <c r="AI28" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ28" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK28" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>19</v>
@@ -5056,10 +5022,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5082,16 +5048,16 @@
         <v>80</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5141,7 +5107,7 @@
         <v>19</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -5150,30 +5116,30 @@
         <v>89</v>
       </c>
       <c r="AI29" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ29" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK29" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>158</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5196,16 +5162,16 @@
         <v>80</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5255,7 +5221,7 @@
         <v>19</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -5264,16 +5230,16 @@
         <v>89</v>
       </c>
       <c r="AI30" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ30" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK30" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>19</v>
@@ -5284,10 +5250,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5310,17 +5276,15 @@
         <v>80</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>19</v>
@@ -5369,7 +5333,7 @@
         <v>19</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -5378,16 +5342,16 @@
         <v>89</v>
       </c>
       <c r="AI31" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ31" t="s" s="2">
-        <v>165</v>
-      </c>
       <c r="AK31" t="s" s="2">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>19</v>
@@ -5398,10 +5362,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5424,16 +5388,16 @@
         <v>80</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5483,7 +5447,7 @@
         <v>19</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -5492,19 +5456,19 @@
         <v>89</v>
       </c>
       <c r="AI32" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ32" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK32" t="s" s="2">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>19</v>
@@ -5512,10 +5476,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5538,13 +5502,13 @@
         <v>80</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5595,7 +5559,7 @@
         <v>19</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -5604,19 +5568,19 @@
         <v>89</v>
       </c>
       <c r="AI33" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ33" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK33" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>19</v>
@@ -5624,10 +5588,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5650,17 +5614,15 @@
         <v>19</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>19</v>
@@ -5709,7 +5671,7 @@
         <v>19</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -5718,19 +5680,19 @@
         <v>89</v>
       </c>
       <c r="AI34" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ34" t="s" s="2">
-        <v>165</v>
-      </c>
       <c r="AK34" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>19</v>
@@ -5738,10 +5700,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5764,16 +5726,16 @@
         <v>19</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5823,7 +5785,7 @@
         <v>19</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -5832,16 +5794,16 @@
         <v>79</v>
       </c>
       <c r="AI35" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ35" t="s" s="2">
-        <v>165</v>
-      </c>
       <c r="AK35" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>19</v>
@@ -5852,10 +5814,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5878,16 +5840,16 @@
         <v>19</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5913,13 +5875,13 @@
         <v>19</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>19</v>
@@ -5937,7 +5899,7 @@
         <v>19</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -5946,30 +5908,30 @@
         <v>79</v>
       </c>
       <c r="AI36" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ36" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK36" t="s" s="2">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>195</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5992,16 +5954,16 @@
         <v>19</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6051,7 +6013,7 @@
         <v>19</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -6060,19 +6022,19 @@
         <v>79</v>
       </c>
       <c r="AI37" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ37" t="s" s="2">
-        <v>165</v>
-      </c>
       <c r="AK37" t="s" s="2">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>19</v>
@@ -6080,10 +6042,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6106,17 +6068,15 @@
         <v>19</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>318</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>19</v>
@@ -6165,7 +6125,7 @@
         <v>19</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -6174,30 +6134,30 @@
         <v>79</v>
       </c>
       <c r="AI38" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ38" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK38" t="s" s="2">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>102</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6220,16 +6180,16 @@
         <v>19</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6279,7 +6239,7 @@
         <v>19</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6288,16 +6248,16 @@
         <v>79</v>
       </c>
       <c r="AI39" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ39" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK39" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>19</v>
@@ -6308,10 +6268,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6334,13 +6294,13 @@
         <v>19</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6391,7 +6351,7 @@
         <v>19</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -6409,7 +6369,7 @@
         <v>19</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>109</v>
+        <v>208</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>19</v>
@@ -6420,14 +6380,14 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6446,16 +6406,16 @@
         <v>19</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="N41" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6493,19 +6453,19 @@
         <v>19</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>140</v>
+        <v>211</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>141</v>
+        <v>212</v>
       </c>
       <c r="AD41" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>142</v>
+        <v>213</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -6514,16 +6474,16 @@
         <v>79</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>102</v>
+        <v>208</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>19</v>
@@ -6534,14 +6494,14 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6560,19 +6520,19 @@
         <v>80</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>19</v>
@@ -6621,7 +6581,7 @@
         <v>19</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -6630,16 +6590,16 @@
         <v>79</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>19</v>
@@ -6650,10 +6610,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6676,19 +6636,17 @@
         <v>80</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>338</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>19</v>
@@ -6737,7 +6695,7 @@
         <v>19</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -6746,30 +6704,30 @@
         <v>89</v>
       </c>
       <c r="AI43" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ43" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK43" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>342</v>
+        <v>334</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6792,19 +6750,17 @@
         <v>80</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>346</v>
-      </c>
+        <v>337</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>19</v>
@@ -6853,7 +6809,7 @@
         <v>19</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -6862,30 +6818,30 @@
         <v>89</v>
       </c>
       <c r="AI44" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ44" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK44" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>349</v>
+        <v>340</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6908,19 +6864,19 @@
         <v>80</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>19</v>
@@ -6945,13 +6901,13 @@
         <v>19</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>19</v>
@@ -6969,7 +6925,7 @@
         <v>19</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -6978,30 +6934,30 @@
         <v>79</v>
       </c>
       <c r="AI45" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ45" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK45" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>358</v>
+        <v>349</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7024,17 +6980,15 @@
         <v>80</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>346</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>19</v>
@@ -7083,7 +7037,7 @@
         <v>19</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -7092,30 +7046,30 @@
         <v>89</v>
       </c>
       <c r="AI46" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ46" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK46" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>358</v>
+        <v>349</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7138,19 +7092,19 @@
         <v>80</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>19</v>
@@ -7199,7 +7153,7 @@
         <v>19</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -7208,30 +7162,30 @@
         <v>89</v>
       </c>
       <c r="AI47" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ47" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK47" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>102</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7254,16 +7208,16 @@
         <v>80</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7289,13 +7243,13 @@
         <v>19</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>19</v>
@@ -7313,7 +7267,7 @@
         <v>19</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -7322,30 +7276,30 @@
         <v>89</v>
       </c>
       <c r="AI48" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ48" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK48" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>379</v>
+        <v>370</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7368,19 +7322,19 @@
         <v>80</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>19</v>
@@ -7405,13 +7359,13 @@
         <v>19</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>19</v>
@@ -7429,7 +7383,7 @@
         <v>19</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -7438,30 +7392,30 @@
         <v>89</v>
       </c>
       <c r="AI49" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ49" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK49" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>389</v>
+        <v>380</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7484,19 +7438,17 @@
         <v>80</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>199</v>
-      </c>
+        <v>383</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>19</v>
@@ -7521,13 +7473,13 @@
         <v>19</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>19</v>
@@ -7545,7 +7497,7 @@
         <v>19</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -7554,30 +7506,30 @@
         <v>89</v>
       </c>
       <c r="AI50" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ50" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK50" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>398</v>
+        <v>389</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7600,19 +7552,19 @@
         <v>80</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>19</v>
@@ -7637,13 +7589,13 @@
         <v>19</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>19</v>
@@ -7661,7 +7613,7 @@
         <v>19</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -7670,30 +7622,30 @@
         <v>89</v>
       </c>
       <c r="AI51" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ51" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK51" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>408</v>
+        <v>399</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7716,13 +7668,13 @@
         <v>80</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7773,7 +7725,7 @@
         <v>19</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -7782,30 +7734,30 @@
         <v>79</v>
       </c>
       <c r="AI52" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ52" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK52" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>414</v>
+        <v>405</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7828,13 +7780,13 @@
         <v>19</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7885,7 +7837,7 @@
         <v>19</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -7903,7 +7855,7 @@
         <v>19</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>109</v>
+        <v>208</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>19</v>
@@ -7914,14 +7866,14 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -7940,16 +7892,16 @@
         <v>19</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L54" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="N54" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -7987,19 +7939,19 @@
         <v>19</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>140</v>
+        <v>211</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>141</v>
+        <v>212</v>
       </c>
       <c r="AD54" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>142</v>
+        <v>213</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -8008,16 +7960,16 @@
         <v>79</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>102</v>
+        <v>208</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>19</v>
@@ -8028,10 +7980,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8054,19 +8006,17 @@
         <v>80</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>199</v>
-      </c>
+        <v>410</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>19</v>
@@ -8091,13 +8041,13 @@
         <v>19</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>19</v>
@@ -8115,7 +8065,7 @@
         <v>19</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -8124,30 +8074,30 @@
         <v>89</v>
       </c>
       <c r="AI55" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ55" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK55" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>424</v>
+        <v>19</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>425</v>
+        <v>415</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8170,19 +8120,19 @@
         <v>80</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>19</v>
@@ -8231,7 +8181,7 @@
         <v>19</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -8240,30 +8190,30 @@
         <v>89</v>
       </c>
       <c r="AI56" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ56" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK56" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>433</v>
+        <v>423</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8286,19 +8236,19 @@
         <v>80</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>19</v>
@@ -8347,7 +8297,7 @@
         <v>19</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -8356,30 +8306,30 @@
         <v>89</v>
       </c>
       <c r="AI57" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ57" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK57" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>442</v>
+        <v>432</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8402,19 +8352,19 @@
         <v>19</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>19</v>
@@ -8463,7 +8413,7 @@
         <v>19</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -8472,30 +8422,30 @@
         <v>89</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>100</v>
+        <v>440</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>102</v>
+        <v>131</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8518,19 +8468,19 @@
         <v>19</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>19</v>
@@ -8579,7 +8529,7 @@
         <v>19</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -8588,30 +8538,30 @@
         <v>89</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>100</v>
+        <v>440</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>461</v>
+        <v>452</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8634,19 +8584,19 @@
         <v>19</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="O60" t="s" s="2">
         <v>454</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>463</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>19</v>
@@ -8695,7 +8645,7 @@
         <v>19</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
@@ -8704,22 +8654,22 @@
         <v>89</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>100</v>
+        <v>440</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>461</v>
+        <v>452</v>
       </c>
     </row>
   </sheetData>
